--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/1.NhanBH/NBH220728_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/1.NhanBH/NBH220728_NhatQuang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -494,6 +494,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,42 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -942,92 +942,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1118,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="17">
-        <v>868183034607767</v>
+        <v>862631034743046</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="4" t="s">
@@ -1137,7 +1137,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="17">
-        <v>868183033827796</v>
+        <v>868183034607767</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="4" t="s">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="17">
-        <v>868183034723390</v>
+        <v>868183033827796</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="4" t="s">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="17">
-        <v>860157040236496</v>
+        <v>868183034723390</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="4" t="s">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="17">
-        <v>868183034653274</v>
+        <v>860157040236496</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="4" t="s">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="17">
-        <v>868183034655337</v>
+        <v>868183034653274</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="4" t="s">
@@ -1209,71 +1209,71 @@
       </c>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="17">
-        <v>867717030421771</v>
+        <v>868183034655337</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="17">
-        <v>866104028831819</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>867857039941112</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="17">
-        <v>866104022169471</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>868183037824559</v>
+      </c>
+      <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="17">
-        <v>863586032909594</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>867717030421771</v>
+      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>15</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="17">
-        <v>866104022163680</v>
+        <v>866104028831819</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -1289,114 +1289,162 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="29" t="s">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17">
+        <v>866104022169471</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="17">
+        <v>863586032909594</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="17">
+        <v>866104022163680</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="48" t="s">
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="39" t="s">
+      <c r="C30" s="35"/>
+      <c r="D30" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
